--- a/学習メモ.xlsx
+++ b/学習メモ.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bks_k\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534A1D9F-4A55-444C-BAD5-88E8D05F1F1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A660D54-6AA6-484A-97B7-53F841F97D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="困難メモ" sheetId="1" r:id="rId1"/>
     <sheet name="開発メモ" sheetId="3" r:id="rId2"/>
     <sheet name="PHPメモ" sheetId="2" r:id="rId3"/>
     <sheet name="Lalavelメモ" sheetId="4" r:id="rId4"/>
+    <sheet name="サーバー" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>既に作成していたhtmlの画面をjspに変えEclipseで使おうとしたところ、</t>
   </si>
@@ -396,6 +397,38 @@
     </rPh>
     <rPh sb="30" eb="32">
       <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サーバーの使い方</t>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サーバーをレンタルする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Teratermでサーバーにログインする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TeratermでGitを導入し、githubからCloneする</t>
+    <rPh sb="13" eb="15">
+      <t>ドウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>URLを入力する</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -407,7 +440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,6 +471,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -462,11 +504,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="通貨" xfId="1" builtinId="7"/>
@@ -1055,7 +1098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79DCF75-B20B-4134-8ACE-5E09A9B85B84}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1090,4 +1133,44 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC503349-45C6-4623-9485-3581D92BA8AE}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24">
+      <c r="A1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>